--- a/c_Product_Attribute_Perceptions_t.xlsx
+++ b/c_Product_Attribute_Perceptions_t.xlsx
@@ -1,44 +1,144 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <workbookPr/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26827"/>
+  <workbookPr defaultThemeVersion="166925"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\downloads\iim_project\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{60949CD1-DA20-42C6-954E-BED84799FC5C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <definedNames/>
-  <calcPr calcId="191029" fullCalcOnLoad="1"/>
+  <calcPr calcId="0"/>
 </workbook>
 </file>
 
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="30">
+  <si>
+    <t>Company</t>
+  </si>
+  <si>
+    <t>Product</t>
+  </si>
+  <si>
+    <t>Price</t>
+  </si>
+  <si>
+    <t>Wt.</t>
+  </si>
+  <si>
+    <t>Complex.</t>
+  </si>
+  <si>
+    <t>Freq.</t>
+  </si>
+  <si>
+    <t>Power</t>
+  </si>
+  <si>
+    <t>Speed</t>
+  </si>
+  <si>
+    <t>1 Red</t>
+  </si>
+  <si>
+    <t>Baller</t>
+  </si>
+  <si>
+    <t>2 Red</t>
+  </si>
+  <si>
+    <t>Banness</t>
+  </si>
+  <si>
+    <t>2 Orange</t>
+  </si>
+  <si>
+    <t>Caster</t>
+  </si>
+  <si>
+    <t>3 Orange</t>
+  </si>
+  <si>
+    <t>Camst</t>
+  </si>
+  <si>
+    <t>3 Yellow</t>
+  </si>
+  <si>
+    <t>Danil</t>
+  </si>
+  <si>
+    <t>4 Yellow</t>
+  </si>
+  <si>
+    <t>Daibi</t>
+  </si>
+  <si>
+    <t>5 Yellow</t>
+  </si>
+  <si>
+    <t>AP</t>
+  </si>
+  <si>
+    <t>4 Green</t>
+  </si>
+  <si>
+    <t>Faldo</t>
+  </si>
+  <si>
+    <t>5 Green</t>
+  </si>
+  <si>
+    <t>Fano</t>
+  </si>
+  <si>
+    <t>5 Blue</t>
+  </si>
+  <si>
+    <t>Gats</t>
+  </si>
+  <si>
+    <t>6 Blue</t>
+  </si>
+  <si>
+    <t>Gamer</t>
+  </si>
+</sst>
+</file>
+
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="0"/>
-  <fonts count="3">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
-      <color theme="1"/>
-      <sz val="11"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="Calibri"/>
-      <b val="1"/>
-      <color theme="1"/>
-      <sz val="11"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="Calibri"/>
-      <color theme="1"/>
-      <sz val="11"/>
     </font>
   </fonts>
   <fills count="2">
     <fill>
-      <patternFill/>
+      <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
@@ -57,86 +157,27 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="3">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
+  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
-  <colors>
-    <indexedColors>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008000"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00808000"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="00C0C0C0"/>
-      <rgbColor rgb="00808080"/>
-      <rgbColor rgb="009999FF"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00FFFFCC"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00660066"/>
-      <rgbColor rgb="00FF8080"/>
-      <rgbColor rgb="000066CC"/>
-      <rgbColor rgb="00CCCCFF"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="0000CCFF"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00CCFFCC"/>
-      <rgbColor rgb="00FFFF99"/>
-      <rgbColor rgb="0099CCFF"/>
-      <rgbColor rgb="00FF99CC"/>
-      <rgbColor rgb="00CC99FF"/>
-      <rgbColor rgb="00FFCC99"/>
-      <rgbColor rgb="003366FF"/>
-      <rgbColor rgb="0033CCCC"/>
-      <rgbColor rgb="0099CC00"/>
-      <rgbColor rgb="00FFCC00"/>
-      <rgbColor rgb="00FF9900"/>
-      <rgbColor rgb="00FF6600"/>
-      <rgbColor rgb="00666699"/>
-      <rgbColor rgb="00969696"/>
-      <rgbColor rgb="00003366"/>
-      <rgbColor rgb="00339966"/>
-      <rgbColor rgb="00003300"/>
-      <rgbColor rgb="00333300"/>
-      <rgbColor rgb="00993300"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00333399"/>
-      <rgbColor rgb="00333333"/>
-    </indexedColors>
-  </colors>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -436,431 +477,325 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:H13"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:H12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A1" sqref="A1:H12"/>
+      <selection activeCell="J15" sqref="J15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" ht="28.8" customHeight="1">
-      <c r="A1" s="1" t="inlineStr">
-        <is>
-          <t>Company</t>
-        </is>
-      </c>
-      <c r="B1" s="1" t="inlineStr">
-        <is>
-          <t>Product</t>
-        </is>
-      </c>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
-          <t>Price</t>
-        </is>
-      </c>
-      <c r="D1" s="1" t="inlineStr">
-        <is>
-          <t>Wt.</t>
-        </is>
-      </c>
-      <c r="E1" s="1" t="inlineStr">
-        <is>
-          <t>Complex.</t>
-        </is>
-      </c>
-      <c r="F1" s="1" t="inlineStr">
-        <is>
-          <t>Freq.</t>
-        </is>
-      </c>
-      <c r="G1" s="1" t="inlineStr">
-        <is>
-          <t>Power</t>
-        </is>
-      </c>
-      <c r="H1" s="1" t="inlineStr">
-        <is>
-          <t>Speed</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" s="2" t="inlineStr">
-        <is>
-          <t>1 Red</t>
-        </is>
-      </c>
-      <c r="B2" s="2" t="inlineStr">
-        <is>
-          <t>Baller</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
-        <v>-32.55</v>
-      </c>
-      <c r="D2" t="n">
+    <row r="1" spans="1:8" ht="28.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A2" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C2">
+        <v>-32.549999999999997</v>
+      </c>
+      <c r="D2">
         <v>1.89999999999993</v>
       </c>
-      <c r="E2" t="n">
-        <v>-9.800000000000001</v>
-      </c>
-      <c r="F2" t="n">
+      <c r="E2">
+        <v>-9.8000000000000007</v>
+      </c>
+      <c r="F2">
         <v>20.7</v>
       </c>
-      <c r="G2" t="n">
+      <c r="G2">
         <v>14.8307579685483</v>
       </c>
-      <c r="H2" t="n">
+      <c r="H2">
         <v>-10.1692420314517</v>
       </c>
     </row>
-    <row r="3">
-      <c r="A3" s="2" t="inlineStr">
-        <is>
-          <t>2 Red</t>
-        </is>
-      </c>
-      <c r="B3" s="2" t="inlineStr">
-        <is>
-          <t>Banness</t>
-        </is>
-      </c>
-      <c r="C3" t="n">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A3" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="C3">
         <v>-25.04</v>
       </c>
-      <c r="D3" t="n">
+      <c r="D3">
         <v>-6.7</v>
       </c>
-      <c r="E3" t="n">
+      <c r="E3">
         <v>2.1</v>
       </c>
-      <c r="F3" t="n">
+      <c r="F3">
         <v>25.6999977067874</v>
       </c>
-      <c r="G3" t="n">
-        <v>16.1</v>
-      </c>
-      <c r="H3" t="n">
+      <c r="G3">
+        <v>16.100000000000001</v>
+      </c>
+      <c r="H3">
         <v>15.4</v>
       </c>
     </row>
-    <row r="4">
-      <c r="A4" s="2" t="inlineStr">
-        <is>
-          <t>2 Orange</t>
-        </is>
-      </c>
-      <c r="B4" s="2" t="inlineStr">
-        <is>
-          <t>Caster</t>
-        </is>
-      </c>
-      <c r="C4" t="n">
-        <v>-32.55</v>
-      </c>
-      <c r="D4" t="n">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A4" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="C4">
+        <v>-32.549999999999997</v>
+      </c>
+      <c r="D4">
         <v>1.89999999999993</v>
       </c>
-      <c r="E4" t="n">
-        <v>-9.800000000000001</v>
-      </c>
-      <c r="F4" t="n">
+      <c r="E4">
+        <v>-9.8000000000000007</v>
+      </c>
+      <c r="F4">
         <v>20.7</v>
       </c>
-      <c r="G4" t="n">
+      <c r="G4">
         <v>14.8307579685483</v>
       </c>
-      <c r="H4" t="n">
+      <c r="H4">
         <v>-10.1692420314517</v>
       </c>
     </row>
-    <row r="5">
-      <c r="A5" s="2" t="inlineStr">
-        <is>
-          <t>3 Orange</t>
-        </is>
-      </c>
-      <c r="B5" s="2" t="inlineStr">
-        <is>
-          <t>Camst</t>
-        </is>
-      </c>
-      <c r="C5" t="n">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A5" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="C5">
         <v>-25.04</v>
       </c>
-      <c r="D5" t="n">
+      <c r="D5">
         <v>-6.7</v>
       </c>
-      <c r="E5" t="n">
+      <c r="E5">
         <v>2.1</v>
       </c>
-      <c r="F5" t="n">
+      <c r="F5">
         <v>25.6999977067874</v>
       </c>
-      <c r="G5" t="n">
-        <v>16.1</v>
-      </c>
-      <c r="H5" t="n">
+      <c r="G5">
+        <v>16.100000000000001</v>
+      </c>
+      <c r="H5">
         <v>15.4</v>
       </c>
     </row>
-    <row r="6">
-      <c r="A6" s="2" t="inlineStr">
-        <is>
-          <t>3 Yellow</t>
-        </is>
-      </c>
-      <c r="B6" s="2" t="inlineStr">
-        <is>
-          <t>Danil</t>
-        </is>
-      </c>
-      <c r="C6" t="n">
-        <v>-32.55</v>
-      </c>
-      <c r="D6" t="n">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A6" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="C6">
+        <v>-32.549999999999997</v>
+      </c>
+      <c r="D6">
         <v>1.89999999999993</v>
       </c>
-      <c r="E6" t="n">
-        <v>-9.800000000000001</v>
-      </c>
-      <c r="F6" t="n">
+      <c r="E6">
+        <v>-9.8000000000000007</v>
+      </c>
+      <c r="F6">
         <v>20.7</v>
       </c>
-      <c r="G6" t="n">
+      <c r="G6">
         <v>14.8307579685483</v>
       </c>
-      <c r="H6" t="n">
+      <c r="H6">
         <v>-10.1692420314517</v>
       </c>
     </row>
-    <row r="7">
-      <c r="A7" s="2" t="inlineStr">
-        <is>
-          <t>4 Yellow</t>
-        </is>
-      </c>
-      <c r="B7" s="2" t="inlineStr">
-        <is>
-          <t>Daibi</t>
-        </is>
-      </c>
-      <c r="C7" t="n">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A7" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="B7" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="C7">
         <v>-25.04</v>
       </c>
-      <c r="D7" t="n">
+      <c r="D7">
         <v>-6.7</v>
       </c>
-      <c r="E7" t="n">
+      <c r="E7">
         <v>2.1</v>
       </c>
-      <c r="F7" t="n">
+      <c r="F7">
         <v>25.6999977067874</v>
       </c>
-      <c r="G7" t="n">
-        <v>16.1</v>
-      </c>
-      <c r="H7" t="n">
+      <c r="G7">
+        <v>16.100000000000001</v>
+      </c>
+      <c r="H7">
         <v>15.4</v>
       </c>
     </row>
-    <row r="8">
-      <c r="A8" s="2" t="inlineStr">
-        <is>
-          <t>5 Yellow</t>
-        </is>
-      </c>
-      <c r="B8" s="2" t="inlineStr">
-        <is>
-          <t>AP</t>
-        </is>
-      </c>
-      <c r="C8" t="n">
-        <v>-32.55</v>
-      </c>
-      <c r="D8" t="n">
-        <v>-6.70000000000007</v>
-      </c>
-      <c r="E8" t="n">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A8" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="B8" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="C8">
+        <v>-32.549999999999997</v>
+      </c>
+      <c r="D8">
+        <v>-6.7000000000000703</v>
+      </c>
+      <c r="E8">
         <v>2.1</v>
       </c>
-      <c r="F8" t="n">
+      <c r="F8">
         <v>25.7</v>
       </c>
-      <c r="G8" t="n">
+      <c r="G8">
         <v>14.8307579685483</v>
       </c>
-      <c r="H8" t="n">
+      <c r="H8">
         <v>14.1307579685483</v>
       </c>
     </row>
-    <row r="9">
-      <c r="A9" s="2" t="inlineStr">
-        <is>
-          <t>4 Green</t>
-        </is>
-      </c>
-      <c r="B9" s="2" t="inlineStr">
-        <is>
-          <t>Faldo</t>
-        </is>
-      </c>
-      <c r="C9" t="n">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A9" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="B9" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="C9">
         <v>-25.04</v>
       </c>
-      <c r="D9" t="n">
+      <c r="D9">
         <v>1.9</v>
       </c>
-      <c r="E9" t="n">
-        <v>-9.800000000000001</v>
-      </c>
-      <c r="F9" t="n">
+      <c r="E9">
+        <v>-9.8000000000000007</v>
+      </c>
+      <c r="F9">
         <v>20.6999977067874</v>
       </c>
-      <c r="G9" t="n">
-        <v>16.1</v>
-      </c>
-      <c r="H9" t="n">
+      <c r="G9">
+        <v>16.100000000000001</v>
+      </c>
+      <c r="H9">
         <v>-8.9</v>
       </c>
     </row>
-    <row r="10">
-      <c r="A10" s="2" t="inlineStr">
-        <is>
-          <t>5 Green</t>
-        </is>
-      </c>
-      <c r="B10" s="2" t="inlineStr">
-        <is>
-          <t>Fano</t>
-        </is>
-      </c>
-      <c r="C10" t="n">
-        <v>-32.55</v>
-      </c>
-      <c r="D10" t="n">
-        <v>-6.70000000000007</v>
-      </c>
-      <c r="E10" t="n">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A10" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="B10" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="C10">
+        <v>-32.549999999999997</v>
+      </c>
+      <c r="D10">
+        <v>-6.7000000000000703</v>
+      </c>
+      <c r="E10">
         <v>2.1</v>
       </c>
-      <c r="F10" t="n">
+      <c r="F10">
         <v>25.7</v>
       </c>
-      <c r="G10" t="n">
+      <c r="G10">
         <v>14.8307579685483</v>
       </c>
-      <c r="H10" t="n">
+      <c r="H10">
         <v>14.1307579685483</v>
       </c>
     </row>
-    <row r="11">
-      <c r="A11" s="2" t="inlineStr">
-        <is>
-          <t>5 Blue</t>
-        </is>
-      </c>
-      <c r="B11" s="2" t="inlineStr">
-        <is>
-          <t>Gats</t>
-        </is>
-      </c>
-      <c r="C11" t="n">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A11" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="B11" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="C11">
         <v>-25.04</v>
       </c>
-      <c r="D11" t="n">
+      <c r="D11">
         <v>1.9</v>
       </c>
-      <c r="E11" t="n">
-        <v>-9.800000000000001</v>
-      </c>
-      <c r="F11" t="n">
+      <c r="E11">
+        <v>-9.8000000000000007</v>
+      </c>
+      <c r="F11">
         <v>20.6999977067874</v>
       </c>
-      <c r="G11" t="n">
-        <v>16.1</v>
-      </c>
-      <c r="H11" t="n">
+      <c r="G11">
+        <v>16.100000000000001</v>
+      </c>
+      <c r="H11">
         <v>-8.9</v>
       </c>
     </row>
-    <row r="12">
-      <c r="A12" s="2" t="inlineStr">
-        <is>
-          <t>6 Blue</t>
-        </is>
-      </c>
-      <c r="B12" s="2" t="inlineStr">
-        <is>
-          <t>Gamer</t>
-        </is>
-      </c>
-      <c r="C12" t="n">
-        <v>-32.55</v>
-      </c>
-      <c r="D12" t="n">
-        <v>-6.70000000000007</v>
-      </c>
-      <c r="E12" t="n">
+    <row r="12" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A12" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="B12" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="C12">
+        <v>-32.549999999999997</v>
+      </c>
+      <c r="D12">
+        <v>-6.7000000000000703</v>
+      </c>
+      <c r="E12">
         <v>2.1</v>
       </c>
-      <c r="F12" t="n">
+      <c r="F12">
         <v>25.7</v>
       </c>
-      <c r="G12" t="n">
+      <c r="G12">
         <v>14.8307579685483</v>
       </c>
-      <c r="H12" t="n">
+      <c r="H12">
         <v>14.1307579685483</v>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" t="inlineStr">
-        <is>
-          <t>ATMA</t>
-        </is>
-      </c>
-      <c r="B13" t="inlineStr">
-        <is>
-          <t>Baller</t>
-        </is>
-      </c>
-      <c r="C13" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="D13" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="E13" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="F13" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="G13" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="H13" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
       </c>
     </row>
   </sheetData>
